--- a/MainTop/17.12.2024/макс_озон_sorted.xlsx
+++ b/MainTop/17.12.2024/макс_озон_sorted.xlsx
@@ -505,15 +505,15 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K73" activeCellId="0" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -572,13 +572,14 @@
         <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
+        <f aca="false">H2/8</f>
         <v>3</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -601,13 +602,14 @@
         <v>16</v>
       </c>
       <c r="I3" s="0" t="n">
+        <f aca="false">H3/8</f>
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
@@ -630,13 +632,14 @@
         <v>16</v>
       </c>
       <c r="I4" s="0" t="n">
+        <f aca="false">H4/8</f>
         <v>2</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
@@ -659,13 +662,14 @@
         <v>16</v>
       </c>
       <c r="I5" s="0" t="n">
+        <f aca="false">H5/8</f>
         <v>2</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
@@ -688,13 +692,14 @@
         <v>16</v>
       </c>
       <c r="I6" s="0" t="n">
+        <f aca="false">H6/8</f>
         <v>2</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -717,13 +722,14 @@
         <v>16</v>
       </c>
       <c r="I7" s="0" t="n">
+        <f aca="false">H7/8</f>
         <v>2</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
@@ -746,13 +752,14 @@
         <v>16</v>
       </c>
       <c r="I8" s="0" t="n">
+        <f aca="false">H8/8</f>
         <v>2</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
@@ -775,13 +782,14 @@
         <v>8</v>
       </c>
       <c r="I9" s="0" t="n">
+        <f aca="false">H9/8</f>
         <v>1</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>22</v>
       </c>
@@ -804,13 +812,14 @@
         <v>8</v>
       </c>
       <c r="I10" s="0" t="n">
+        <f aca="false">H10/8</f>
         <v>1</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>23</v>
       </c>
@@ -833,13 +842,14 @@
         <v>8</v>
       </c>
       <c r="I11" s="0" t="n">
+        <f aca="false">H11/8</f>
         <v>1</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>24</v>
       </c>
@@ -862,13 +872,14 @@
         <v>8</v>
       </c>
       <c r="I12" s="0" t="n">
+        <f aca="false">H12/8</f>
         <v>1</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
@@ -891,13 +902,14 @@
         <v>8</v>
       </c>
       <c r="I13" s="0" t="n">
+        <f aca="false">H13/8</f>
         <v>1</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
@@ -920,13 +932,14 @@
         <v>8</v>
       </c>
       <c r="I14" s="0" t="n">
+        <f aca="false">H14/8</f>
         <v>1</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
@@ -949,13 +962,14 @@
         <v>8</v>
       </c>
       <c r="I15" s="0" t="n">
+        <f aca="false">H15/8</f>
         <v>1</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>28</v>
       </c>
@@ -978,13 +992,14 @@
         <v>8</v>
       </c>
       <c r="I16" s="0" t="n">
+        <f aca="false">H16/8</f>
         <v>1</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>29</v>
       </c>
@@ -1007,13 +1022,14 @@
         <v>8</v>
       </c>
       <c r="I17" s="0" t="n">
+        <f aca="false">H17/8</f>
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>31</v>
       </c>
@@ -1036,13 +1052,14 @@
         <v>8</v>
       </c>
       <c r="I18" s="0" t="n">
+        <f aca="false">H18/8</f>
         <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>32</v>
       </c>
@@ -1065,13 +1082,14 @@
         <v>8</v>
       </c>
       <c r="I19" s="0" t="n">
+        <f aca="false">H19/8</f>
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
@@ -1094,13 +1112,14 @@
         <v>8</v>
       </c>
       <c r="I20" s="0" t="n">
+        <f aca="false">H20/8</f>
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
@@ -1123,13 +1142,14 @@
         <v>8</v>
       </c>
       <c r="I21" s="0" t="n">
+        <f aca="false">H21/8</f>
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>35</v>
       </c>
@@ -1152,13 +1172,14 @@
         <v>8</v>
       </c>
       <c r="I22" s="0" t="n">
+        <f aca="false">H22/8</f>
         <v>1</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>36</v>
       </c>
@@ -1181,13 +1202,14 @@
         <v>8</v>
       </c>
       <c r="I23" s="0" t="n">
+        <f aca="false">H23/8</f>
         <v>1</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>37</v>
       </c>
@@ -1210,13 +1232,14 @@
         <v>8</v>
       </c>
       <c r="I24" s="0" t="n">
+        <f aca="false">H24/8</f>
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>38</v>
       </c>
@@ -1239,6 +1262,7 @@
         <v>8</v>
       </c>
       <c r="I25" s="0" t="n">
+        <f aca="false">H25/8</f>
         <v>1</v>
       </c>
       <c r="J25" s="0" t="s">
@@ -1272,6 +1296,7 @@
         <v>56</v>
       </c>
       <c r="I26" s="0" t="n">
+        <f aca="false">H26/8</f>
         <v>7</v>
       </c>
       <c r="J26" s="0" t="s">
@@ -1305,6 +1330,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="0" t="n">
+        <f aca="false">H27/8</f>
         <v>4</v>
       </c>
       <c r="J27" s="0" t="s">
@@ -1315,7 +1341,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>42</v>
       </c>
@@ -1338,13 +1364,14 @@
         <v>24</v>
       </c>
       <c r="I28" s="0" t="n">
+        <f aca="false">H28/8</f>
         <v>3</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>43</v>
       </c>
@@ -1367,13 +1394,14 @@
         <v>24</v>
       </c>
       <c r="I29" s="0" t="n">
+        <f aca="false">H29/8</f>
         <v>3</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>44</v>
       </c>
@@ -1396,13 +1424,14 @@
         <v>24</v>
       </c>
       <c r="I30" s="0" t="n">
+        <f aca="false">H30/8</f>
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>45</v>
       </c>
@@ -1425,13 +1454,14 @@
         <v>24</v>
       </c>
       <c r="I31" s="0" t="n">
+        <f aca="false">H31/8</f>
         <v>3</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>46</v>
       </c>
@@ -1454,13 +1484,14 @@
         <v>24</v>
       </c>
       <c r="I32" s="0" t="n">
+        <f aca="false">H32/8</f>
         <v>3</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>47</v>
       </c>
@@ -1483,13 +1514,14 @@
         <v>16</v>
       </c>
       <c r="I33" s="0" t="n">
+        <f aca="false">H33/8</f>
         <v>2</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>48</v>
       </c>
@@ -1512,13 +1544,14 @@
         <v>16</v>
       </c>
       <c r="I34" s="0" t="n">
+        <f aca="false">H34/8</f>
         <v>2</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>49</v>
       </c>
@@ -1541,13 +1574,14 @@
         <v>16</v>
       </c>
       <c r="I35" s="0" t="n">
+        <f aca="false">H35/8</f>
         <v>2</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>50</v>
       </c>
@@ -1570,13 +1604,14 @@
         <v>16</v>
       </c>
       <c r="I36" s="0" t="n">
+        <f aca="false">H36/8</f>
         <v>2</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>51</v>
       </c>
@@ -1599,13 +1634,14 @@
         <v>16</v>
       </c>
       <c r="I37" s="0" t="n">
+        <f aca="false">H37/8</f>
         <v>2</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>52</v>
       </c>
@@ -1628,13 +1664,14 @@
         <v>16</v>
       </c>
       <c r="I38" s="0" t="n">
+        <f aca="false">H38/8</f>
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>53</v>
       </c>
@@ -1657,13 +1694,14 @@
         <v>16</v>
       </c>
       <c r="I39" s="0" t="n">
+        <f aca="false">H39/8</f>
         <v>2</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>54</v>
       </c>
@@ -1686,13 +1724,14 @@
         <v>16</v>
       </c>
       <c r="I40" s="0" t="n">
+        <f aca="false">H40/8</f>
         <v>2</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>55</v>
       </c>
@@ -1715,13 +1754,14 @@
         <v>16</v>
       </c>
       <c r="I41" s="0" t="n">
+        <f aca="false">H41/8</f>
         <v>2</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>56</v>
       </c>
@@ -1744,13 +1784,14 @@
         <v>8</v>
       </c>
       <c r="I42" s="0" t="n">
+        <f aca="false">H42/8</f>
         <v>1</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>57</v>
       </c>
@@ -1773,13 +1814,14 @@
         <v>8</v>
       </c>
       <c r="I43" s="0" t="n">
+        <f aca="false">H43/8</f>
         <v>1</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>58</v>
       </c>
@@ -1802,13 +1844,14 @@
         <v>8</v>
       </c>
       <c r="I44" s="0" t="n">
+        <f aca="false">H44/8</f>
         <v>1</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>59</v>
       </c>
@@ -1831,13 +1874,14 @@
         <v>8</v>
       </c>
       <c r="I45" s="0" t="n">
+        <f aca="false">H45/8</f>
         <v>1</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>60</v>
       </c>
@@ -1860,13 +1904,14 @@
         <v>8</v>
       </c>
       <c r="I46" s="0" t="n">
+        <f aca="false">H46/8</f>
         <v>1</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>61</v>
       </c>
@@ -1889,13 +1934,14 @@
         <v>8</v>
       </c>
       <c r="I47" s="0" t="n">
+        <f aca="false">H47/8</f>
         <v>1</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>62</v>
       </c>
@@ -1918,13 +1964,14 @@
         <v>8</v>
       </c>
       <c r="I48" s="0" t="n">
+        <f aca="false">H48/8</f>
         <v>1</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>63</v>
       </c>
@@ -1947,13 +1994,14 @@
         <v>8</v>
       </c>
       <c r="I49" s="0" t="n">
+        <f aca="false">H49/8</f>
         <v>1</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>64</v>
       </c>
@@ -1976,13 +2024,14 @@
         <v>8</v>
       </c>
       <c r="I50" s="0" t="n">
+        <f aca="false">H50/8</f>
         <v>1</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>65</v>
       </c>
@@ -2005,13 +2054,14 @@
         <v>8</v>
       </c>
       <c r="I51" s="0" t="n">
+        <f aca="false">H51/8</f>
         <v>1</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>66</v>
       </c>
@@ -2034,13 +2084,14 @@
         <v>8</v>
       </c>
       <c r="I52" s="0" t="n">
+        <f aca="false">H52/8</f>
         <v>1</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>67</v>
       </c>
@@ -2063,13 +2114,14 @@
         <v>8</v>
       </c>
       <c r="I53" s="0" t="n">
+        <f aca="false">H53/8</f>
         <v>1</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>68</v>
       </c>
@@ -2092,13 +2144,14 @@
         <v>8</v>
       </c>
       <c r="I54" s="0" t="n">
+        <f aca="false">H54/8</f>
         <v>1</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>69</v>
       </c>
@@ -2121,13 +2174,14 @@
         <v>8</v>
       </c>
       <c r="I55" s="0" t="n">
+        <f aca="false">H55/8</f>
         <v>1</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>70</v>
       </c>
@@ -2150,13 +2204,14 @@
         <v>8</v>
       </c>
       <c r="I56" s="0" t="n">
+        <f aca="false">H56/8</f>
         <v>1</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>71</v>
       </c>
@@ -2179,13 +2234,14 @@
         <v>8</v>
       </c>
       <c r="I57" s="0" t="n">
+        <f aca="false">H57/8</f>
         <v>1</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>72</v>
       </c>
@@ -2208,13 +2264,14 @@
         <v>8</v>
       </c>
       <c r="I58" s="0" t="n">
+        <f aca="false">H58/8</f>
         <v>1</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>73</v>
       </c>
@@ -2237,13 +2294,14 @@
         <v>8</v>
       </c>
       <c r="I59" s="0" t="n">
+        <f aca="false">H59/8</f>
         <v>1</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>74</v>
       </c>
@@ -2266,13 +2324,14 @@
         <v>8</v>
       </c>
       <c r="I60" s="0" t="n">
+        <f aca="false">H60/8</f>
         <v>1</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>75</v>
       </c>
@@ -2295,13 +2354,14 @@
         <v>8</v>
       </c>
       <c r="I61" s="0" t="n">
+        <f aca="false">H61/8</f>
         <v>1</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>76</v>
       </c>
@@ -2324,13 +2384,14 @@
         <v>8</v>
       </c>
       <c r="I62" s="0" t="n">
+        <f aca="false">H62/8</f>
         <v>1</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>77</v>
       </c>
@@ -2353,13 +2414,14 @@
         <v>8</v>
       </c>
       <c r="I63" s="0" t="n">
+        <f aca="false">H63/8</f>
         <v>1</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>78</v>
       </c>
@@ -2382,13 +2444,14 @@
         <v>8</v>
       </c>
       <c r="I64" s="0" t="n">
+        <f aca="false">H64/8</f>
         <v>1</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>79</v>
       </c>
@@ -2411,13 +2474,14 @@
         <v>8</v>
       </c>
       <c r="I65" s="0" t="n">
+        <f aca="false">H65/8</f>
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>80</v>
       </c>
@@ -2440,13 +2504,14 @@
         <v>8</v>
       </c>
       <c r="I66" s="0" t="n">
+        <f aca="false">H66/8</f>
         <v>1</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>81</v>
       </c>
@@ -2469,13 +2534,14 @@
         <v>8</v>
       </c>
       <c r="I67" s="0" t="n">
+        <f aca="false">H67/8</f>
         <v>1</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>82</v>
       </c>
@@ -2498,13 +2564,14 @@
         <v>8</v>
       </c>
       <c r="I68" s="0" t="n">
+        <f aca="false">H68/8</f>
         <v>1</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>83</v>
       </c>
@@ -2527,13 +2594,14 @@
         <v>8</v>
       </c>
       <c r="I69" s="0" t="n">
+        <f aca="false">H69/8</f>
         <v>1</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>84</v>
       </c>
@@ -2556,13 +2624,14 @@
         <v>8</v>
       </c>
       <c r="I70" s="0" t="n">
+        <f aca="false">H70/8</f>
         <v>1</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>85</v>
       </c>
@@ -2585,13 +2654,14 @@
         <v>8</v>
       </c>
       <c r="I71" s="0" t="n">
+        <f aca="false">H71/8</f>
         <v>1</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>86</v>
       </c>
@@ -2614,13 +2684,14 @@
         <v>8</v>
       </c>
       <c r="I72" s="0" t="n">
+        <f aca="false">H72/8</f>
         <v>1</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>87</v>
       </c>
@@ -2643,13 +2714,14 @@
         <v>8</v>
       </c>
       <c r="I73" s="0" t="n">
+        <f aca="false">H73/8</f>
         <v>1</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>88</v>
       </c>
@@ -2672,13 +2744,14 @@
         <v>8</v>
       </c>
       <c r="I74" s="0" t="n">
+        <f aca="false">H74/8</f>
         <v>1</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>89</v>
       </c>
@@ -2701,6 +2774,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="0" t="n">
+        <f aca="false">H75/8</f>
         <v>1</v>
       </c>
       <c r="J75" s="0" t="s">
